--- a/Data/collapsed database manual cases/chihuahua_collapsed_edited.xlsx
+++ b/Data/collapsed database manual cases/chihuahua_collapsed_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7da8e9ec94b4821/Documents/ITAM/RA - Horacio/Monitoring Brokers/Data/States/chihuahua/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpzorrilla/Documents/GitHub/The-Mexican-municipal-elections-electoral-precinct-level-database/Data/collapsed database manual cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_F01E9ED48F79A8D366075C52F37BD2725A4A7DB3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C942AE4-F450-A941-AB8B-64619CF10EF3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7158CB75-F0F3-E441-9B60-5876AAF7FBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29220" yWindow="0" windowWidth="21980" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22040" yWindow="7560" windowWidth="22040" windowHeight="14840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4399" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4534" uniqueCount="727">
   <si>
     <t>uniqueid</t>
   </si>
@@ -2090,13 +2090,127 @@
   </si>
   <si>
     <t>INE</t>
+  </si>
+  <si>
+    <t>BLANCA JENNYRA FIGUEROA CHAVEZ</t>
+  </si>
+  <si>
+    <t>LAURA BERNARDA ROMERO GARCIA</t>
+  </si>
+  <si>
+    <t>RAMON ARMANDO NORIEGA ARMENDARIZ</t>
+  </si>
+  <si>
+    <t>ARTURO ZUBIA FERNANDEZ</t>
+  </si>
+  <si>
+    <t>MARIA EUGENIA CAMPOS GALVAN</t>
+  </si>
+  <si>
+    <t>CARLOS TENA NEVAREZ</t>
+  </si>
+  <si>
+    <t>ELISEO COMPEAN FERNANDEZ</t>
+  </si>
+  <si>
+    <t>CARLOS COMADURAN AMAYA</t>
+  </si>
+  <si>
+    <t>ALEN MUÑOZ LOYA</t>
+  </si>
+  <si>
+    <t>SEVASTIAN EFRAIN PINEDA ACEDO</t>
+  </si>
+  <si>
+    <t>ANGELICA LUJAN JIMENEZ</t>
+  </si>
+  <si>
+    <t>JAIME TORRES AMAYA</t>
+  </si>
+  <si>
+    <t>MARIA DE LOS ANGELES GAUCIN SALAS</t>
+  </si>
+  <si>
+    <t>ISMAEL PEREZ PAVIA</t>
+  </si>
+  <si>
+    <t>RAMIRO RIVERA HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MARTIN SANCHEZ VALLES</t>
+  </si>
+  <si>
+    <t>RICARDO LOZOYA BUZO</t>
+  </si>
+  <si>
+    <t>JOSE FRANCISCO RAMIREZ LICON</t>
+  </si>
+  <si>
+    <t>HILDA MARIA CARO GUANESPEN</t>
+  </si>
+  <si>
+    <t>FERNANDO ORTEGA BALDERRAMA</t>
+  </si>
+  <si>
+    <t>ADRIAN DURAN MENDOZA</t>
+  </si>
+  <si>
+    <t>MANUELA AIDE LOPEZ DE ANDA</t>
+  </si>
+  <si>
+    <t>MAYRA DE JESUS DIAZ GUTIERREZ</t>
+  </si>
+  <si>
+    <t>ADRIANA CAMPOS RASCON</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Anexo:Presidentes_municipales_de_Chihuahua_(2018-2021)</t>
+  </si>
+  <si>
+    <t>MORENA</t>
+  </si>
+  <si>
+    <t>SANTOS CORDERO RODELAS</t>
+  </si>
+  <si>
+    <t>ROBERTO CERVANTES ORTEGA</t>
+  </si>
+  <si>
+    <t>JAVIER RODRIGUEZ CHAVEZ</t>
+  </si>
+  <si>
+    <t>JOEL GUILLERMO BUSTILLOS RAMIREZ</t>
+  </si>
+  <si>
+    <t>EDGAR CESAR VENEGAS</t>
+  </si>
+  <si>
+    <t>AMMON DAYER LEBARON TRACY</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO BONILLA MENDOZA</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Marco_Bonilla_Mendoza</t>
+  </si>
+  <si>
+    <t>CRUZ PEREZ CUELLAR</t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;source=web&amp;rct=j&amp;opi=89978449&amp;url=https://www.facebook.com/carloscomaduran2021/&amp;ved=2ahUKEwinx8jF0veRAxVHEkQIHbvJNQMQFnoECCQQAQ&amp;usg=AOvVaw10fP9jRzFY7C3G9pjs2jFZ</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Cruz_Pérez_Cuéllar</t>
+  </si>
+  <si>
+    <t>DANIEL AARON SILVA FIGUEROA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2125,6 +2239,25 @@
       <name val="Abadi"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2152,7 +2285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2162,6 +2295,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2177,10 +2313,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2471,10 +2603,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S471"/>
+  <dimension ref="A1:S505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F477" sqref="F477"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G489" sqref="G489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21973,6 +22105,715 @@
         <v>43</v>
       </c>
     </row>
+    <row r="472" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A472">
+        <v>8003</v>
+      </c>
+      <c r="B472">
+        <v>2021</v>
+      </c>
+      <c r="C472" t="s">
+        <v>19</v>
+      </c>
+      <c r="F472" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="G472" s="6"/>
+      <c r="H472" t="s">
+        <v>24</v>
+      </c>
+      <c r="I472" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="473" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A473">
+        <v>8005</v>
+      </c>
+      <c r="B473">
+        <v>2021</v>
+      </c>
+      <c r="C473" t="s">
+        <v>19</v>
+      </c>
+      <c r="F473" t="s">
+        <v>690</v>
+      </c>
+      <c r="H473" t="s">
+        <v>24</v>
+      </c>
+      <c r="I473" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="474" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A474">
+        <v>8010</v>
+      </c>
+      <c r="B474">
+        <v>2021</v>
+      </c>
+      <c r="C474" t="s">
+        <v>19</v>
+      </c>
+      <c r="F474" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="G474" s="5"/>
+      <c r="H474" t="s">
+        <v>160</v>
+      </c>
+      <c r="I474" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="475" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A475">
+        <v>8011</v>
+      </c>
+      <c r="B475">
+        <v>2021</v>
+      </c>
+      <c r="C475" t="s">
+        <v>19</v>
+      </c>
+      <c r="F475" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="G475" s="6"/>
+      <c r="H475" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I475" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="476" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A476">
+        <v>8019</v>
+      </c>
+      <c r="B476">
+        <v>2021</v>
+      </c>
+      <c r="C476" t="s">
+        <v>19</v>
+      </c>
+      <c r="F476" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="G476" s="6"/>
+      <c r="H476" t="s">
+        <v>24</v>
+      </c>
+      <c r="I476" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="477" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A477">
+        <v>8017</v>
+      </c>
+      <c r="B477">
+        <v>2021</v>
+      </c>
+      <c r="C477" t="s">
+        <v>19</v>
+      </c>
+      <c r="F477" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="G477" s="6"/>
+      <c r="H477" t="s">
+        <v>714</v>
+      </c>
+      <c r="I477" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="478" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A478">
+        <v>8021</v>
+      </c>
+      <c r="B478">
+        <v>2021</v>
+      </c>
+      <c r="C478" t="s">
+        <v>19</v>
+      </c>
+      <c r="F478" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="G478" s="5"/>
+      <c r="H478" t="s">
+        <v>24</v>
+      </c>
+      <c r="I478" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="479" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A479">
+        <v>8031</v>
+      </c>
+      <c r="B479">
+        <v>2021</v>
+      </c>
+      <c r="C479" t="s">
+        <v>19</v>
+      </c>
+      <c r="F479" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="G479" s="6"/>
+      <c r="H479" t="s">
+        <v>714</v>
+      </c>
+      <c r="I479" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="480" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A480">
+        <v>8025</v>
+      </c>
+      <c r="B480">
+        <v>2021</v>
+      </c>
+      <c r="C480" t="s">
+        <v>19</v>
+      </c>
+      <c r="F480" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="H480" t="s">
+        <v>714</v>
+      </c>
+      <c r="I480" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A481">
+        <v>8035</v>
+      </c>
+      <c r="B481">
+        <v>2021</v>
+      </c>
+      <c r="C481" t="s">
+        <v>19</v>
+      </c>
+      <c r="F481" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="G481" s="6"/>
+      <c r="H481" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I481" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A482">
+        <v>8038</v>
+      </c>
+      <c r="B482">
+        <v>2021</v>
+      </c>
+      <c r="C482" t="s">
+        <v>19</v>
+      </c>
+      <c r="F482" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="G482" s="6"/>
+      <c r="H482" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I482" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A483">
+        <v>8040</v>
+      </c>
+      <c r="B483">
+        <v>2021</v>
+      </c>
+      <c r="C483" t="s">
+        <v>19</v>
+      </c>
+      <c r="F483" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="G483" s="6"/>
+      <c r="H483" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I483" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A484">
+        <v>8044</v>
+      </c>
+      <c r="B484">
+        <v>2021</v>
+      </c>
+      <c r="C484" t="s">
+        <v>19</v>
+      </c>
+      <c r="F484" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="G484" s="6"/>
+      <c r="H484" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I484" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A485">
+        <v>8045</v>
+      </c>
+      <c r="B485">
+        <v>2021</v>
+      </c>
+      <c r="C485" t="s">
+        <v>19</v>
+      </c>
+      <c r="F485" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="G485" s="6"/>
+      <c r="H485" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I485" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A486">
+        <v>8047</v>
+      </c>
+      <c r="B486">
+        <v>2021</v>
+      </c>
+      <c r="C486" t="s">
+        <v>19</v>
+      </c>
+      <c r="F486" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="G486" s="6"/>
+      <c r="H486" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I486" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A487">
+        <v>8052</v>
+      </c>
+      <c r="B487">
+        <v>2021</v>
+      </c>
+      <c r="C487" t="s">
+        <v>19</v>
+      </c>
+      <c r="F487" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="G487" s="6"/>
+      <c r="H487" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I487" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A488">
+        <v>8053</v>
+      </c>
+      <c r="B488">
+        <v>2021</v>
+      </c>
+      <c r="C488" t="s">
+        <v>19</v>
+      </c>
+      <c r="F488" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="G488" s="6"/>
+      <c r="H488" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I488" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A489">
+        <v>8055</v>
+      </c>
+      <c r="B489">
+        <v>2021</v>
+      </c>
+      <c r="C489" t="s">
+        <v>19</v>
+      </c>
+      <c r="F489" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="G489" s="6"/>
+      <c r="H489" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="I489" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A490">
+        <v>8057</v>
+      </c>
+      <c r="B490">
+        <v>2021</v>
+      </c>
+      <c r="C490" t="s">
+        <v>19</v>
+      </c>
+      <c r="F490" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="G490" s="6"/>
+      <c r="H490" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I490" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A491">
+        <v>8024</v>
+      </c>
+      <c r="B491">
+        <v>2021</v>
+      </c>
+      <c r="C491" t="s">
+        <v>19</v>
+      </c>
+      <c r="F491" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="G491" s="6"/>
+      <c r="H491" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I491" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A492">
+        <v>8061</v>
+      </c>
+      <c r="B492">
+        <v>2021</v>
+      </c>
+      <c r="C492" t="s">
+        <v>19</v>
+      </c>
+      <c r="F492" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="G492" s="6"/>
+      <c r="H492" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I492" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A493">
+        <v>8062</v>
+      </c>
+      <c r="B493">
+        <v>2021</v>
+      </c>
+      <c r="C493" t="s">
+        <v>19</v>
+      </c>
+      <c r="F493" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="G493" s="6"/>
+      <c r="H493" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I493" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="494" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A494">
+        <v>8065</v>
+      </c>
+      <c r="B494">
+        <v>2021</v>
+      </c>
+      <c r="C494" t="s">
+        <v>19</v>
+      </c>
+      <c r="F494" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="G494" s="6"/>
+      <c r="H494" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I494" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="495" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A495">
+        <v>8066</v>
+      </c>
+      <c r="B495">
+        <v>2021</v>
+      </c>
+      <c r="C495" t="s">
+        <v>19</v>
+      </c>
+      <c r="F495" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="G495" s="6"/>
+      <c r="H495" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I495" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A496">
+        <v>8012</v>
+      </c>
+      <c r="B496">
+        <v>2021</v>
+      </c>
+      <c r="C496" t="s">
+        <v>19</v>
+      </c>
+      <c r="F496" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="G496" s="6"/>
+      <c r="H496" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I496" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A497">
+        <v>8015</v>
+      </c>
+      <c r="B497">
+        <v>2021</v>
+      </c>
+      <c r="C497" t="s">
+        <v>19</v>
+      </c>
+      <c r="F497" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="G497" s="6"/>
+      <c r="H497" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I497" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A498">
+        <v>8064</v>
+      </c>
+      <c r="B498">
+        <v>2021</v>
+      </c>
+      <c r="C498" t="s">
+        <v>19</v>
+      </c>
+      <c r="F498" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="G498" s="6"/>
+      <c r="H498" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I498" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A499">
+        <v>8030</v>
+      </c>
+      <c r="B499">
+        <v>2021</v>
+      </c>
+      <c r="C499" t="s">
+        <v>19</v>
+      </c>
+      <c r="F499" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="G499" s="6"/>
+      <c r="H499" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I499" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A500">
+        <v>8046</v>
+      </c>
+      <c r="B500">
+        <v>2021</v>
+      </c>
+      <c r="C500" t="s">
+        <v>19</v>
+      </c>
+      <c r="F500" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="G500" s="6"/>
+      <c r="H500" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I500" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A501">
+        <v>8023</v>
+      </c>
+      <c r="B501">
+        <v>2021</v>
+      </c>
+      <c r="C501" t="s">
+        <v>19</v>
+      </c>
+      <c r="F501" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="G501" s="6"/>
+      <c r="H501" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I501" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A502">
+        <v>8019</v>
+      </c>
+      <c r="B502">
+        <v>2024</v>
+      </c>
+      <c r="C502" t="s">
+        <v>19</v>
+      </c>
+      <c r="F502" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="G502" s="6"/>
+      <c r="H502" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I502" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A503">
+        <v>8031</v>
+      </c>
+      <c r="B503">
+        <v>2024</v>
+      </c>
+      <c r="C503" t="s">
+        <v>19</v>
+      </c>
+      <c r="F503" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="G503" s="6"/>
+      <c r="H503" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="I503" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A504">
+        <v>8037</v>
+      </c>
+      <c r="B504">
+        <v>2024</v>
+      </c>
+      <c r="C504" t="s">
+        <v>19</v>
+      </c>
+      <c r="F504" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="G504" s="6"/>
+      <c r="H504" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="I504" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A505">
+        <v>8065</v>
+      </c>
+      <c r="B505">
+        <v>2024</v>
+      </c>
+      <c r="C505" t="s">
+        <v>19</v>
+      </c>
+      <c r="F505" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="G505" s="6"/>
+      <c r="H505" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:S471" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="5">
